--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Pspn-Gfra4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Pspn-Gfra4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -89,9 +95,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -543,10 +546,10 @@
         <v>9.127718</v>
       </c>
       <c r="I2">
-        <v>0.9827375016055572</v>
+        <v>0.7055529458943673</v>
       </c>
       <c r="J2">
-        <v>0.9827375016055572</v>
+        <v>0.7055529458943673</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +558,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.2615776666666667</v>
+        <v>0.210802</v>
       </c>
       <c r="N2">
-        <v>0.784733</v>
+        <v>0.632406</v>
       </c>
       <c r="O2">
-        <v>0.09693893622669537</v>
+        <v>0.09369599641576212</v>
       </c>
       <c r="P2">
-        <v>0.09693893622669537</v>
+        <v>0.09369599641576211</v>
       </c>
       <c r="Q2">
-        <v>0.7958690588104443</v>
+        <v>0.6413804032786667</v>
       </c>
       <c r="R2">
-        <v>7.162821529294</v>
+        <v>5.772423629508</v>
       </c>
       <c r="S2">
-        <v>0.09526552799572305</v>
+        <v>0.06610748628964905</v>
       </c>
       <c r="T2">
-        <v>0.09526552799572305</v>
+        <v>0.06610748628964903</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -605,10 +608,10 @@
         <v>9.127718</v>
       </c>
       <c r="I3">
-        <v>0.9827375016055572</v>
+        <v>0.7055529458943673</v>
       </c>
       <c r="J3">
-        <v>0.9827375016055572</v>
+        <v>0.7055529458943673</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,13 +623,13 @@
         <v>1.465947333333333</v>
       </c>
       <c r="N3">
-        <v>4.397842000000001</v>
+        <v>4.397842</v>
       </c>
       <c r="O3">
-        <v>0.5432702908799331</v>
+        <v>0.6515753934483355</v>
       </c>
       <c r="P3">
-        <v>0.5432702908799331</v>
+        <v>0.6515753934483355</v>
       </c>
       <c r="Q3">
         <v>4.460251287172889</v>
@@ -635,10 +638,10 @@
         <v>40.142261584556</v>
       </c>
       <c r="S3">
-        <v>0.5338920883558698</v>
+        <v>0.4597209383197546</v>
       </c>
       <c r="T3">
-        <v>0.5338920883558698</v>
+        <v>0.4597209383197546</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,10 +670,10 @@
         <v>9.127718</v>
       </c>
       <c r="I4">
-        <v>0.9827375016055572</v>
+        <v>0.7055529458943673</v>
       </c>
       <c r="J4">
-        <v>0.9827375016055572</v>
+        <v>0.7055529458943673</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,60 +682,60 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.9708506666666668</v>
+        <v>0.4647176666666666</v>
       </c>
       <c r="N4">
-        <v>2.912552</v>
+        <v>1.394153</v>
       </c>
       <c r="O4">
-        <v>0.3597907728933715</v>
+        <v>0.2065548943100223</v>
       </c>
       <c r="P4">
-        <v>0.3597907728933715</v>
+        <v>0.2065548943100223</v>
       </c>
       <c r="Q4">
-        <v>2.953883701815111</v>
+        <v>1.413937270317111</v>
       </c>
       <c r="R4">
-        <v>26.584953316336</v>
+        <v>12.725435432854</v>
       </c>
       <c r="S4">
-        <v>0.3535798852539643</v>
+        <v>0.1457354141693359</v>
       </c>
       <c r="T4">
-        <v>0.3535798852539643</v>
+        <v>0.1457354141693359</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.05344499999999999</v>
+        <v>3.042572666666667</v>
       </c>
       <c r="H5">
-        <v>0.160335</v>
+        <v>9.127718</v>
       </c>
       <c r="I5">
-        <v>0.01726249839444284</v>
+        <v>0.7055529458943673</v>
       </c>
       <c r="J5">
-        <v>0.01726249839444284</v>
+        <v>0.7055529458943673</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,28 +744,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.2615776666666667</v>
+        <v>0.1083836666666667</v>
       </c>
       <c r="N5">
-        <v>0.784733</v>
+        <v>0.325151</v>
       </c>
       <c r="O5">
-        <v>0.09693893622669537</v>
+        <v>0.04817371582588</v>
       </c>
       <c r="P5">
-        <v>0.09693893622669537</v>
+        <v>0.04817371582587999</v>
       </c>
       <c r="Q5">
-        <v>0.013980018395</v>
+        <v>0.3297651817131111</v>
       </c>
       <c r="R5">
-        <v>0.125820165555</v>
+        <v>2.967886635418</v>
       </c>
       <c r="S5">
-        <v>0.001673408230972325</v>
+        <v>0.03398910711562773</v>
       </c>
       <c r="T5">
-        <v>0.001673408230972325</v>
+        <v>0.03398910711562773</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,13 +773,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -785,46 +788,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.05344499999999999</v>
+        <v>0.271593</v>
       </c>
       <c r="H6">
-        <v>0.160335</v>
+        <v>0.814779</v>
       </c>
       <c r="I6">
-        <v>0.01726249839444284</v>
+        <v>0.06298066216581918</v>
       </c>
       <c r="J6">
-        <v>0.01726249839444284</v>
+        <v>0.06298066216581918</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>1.465947333333333</v>
+        <v>0.210802</v>
       </c>
       <c r="N6">
-        <v>4.397842000000001</v>
+        <v>0.632406</v>
       </c>
       <c r="O6">
-        <v>0.5432702908799331</v>
+        <v>0.09369599641576212</v>
       </c>
       <c r="P6">
-        <v>0.5432702908799331</v>
+        <v>0.09369599641576211</v>
       </c>
       <c r="Q6">
-        <v>0.07834755522999999</v>
+        <v>0.05725234758600001</v>
       </c>
       <c r="R6">
-        <v>0.7051279970700001</v>
+        <v>0.515271128274</v>
       </c>
       <c r="S6">
-        <v>0.009378202524063338</v>
+        <v>0.005901035896550919</v>
       </c>
       <c r="T6">
-        <v>0.009378202524063338</v>
+        <v>0.005901035896550918</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -847,16 +850,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.05344499999999999</v>
+        <v>0.271593</v>
       </c>
       <c r="H7">
-        <v>0.160335</v>
+        <v>0.814779</v>
       </c>
       <c r="I7">
-        <v>0.01726249839444284</v>
+        <v>0.06298066216581918</v>
       </c>
       <c r="J7">
-        <v>0.01726249839444284</v>
+        <v>0.06298066216581918</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +868,648 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9708506666666668</v>
+        <v>1.465947333333333</v>
       </c>
       <c r="N7">
-        <v>2.912552</v>
+        <v>4.397842</v>
       </c>
       <c r="O7">
-        <v>0.3597907728933715</v>
+        <v>0.6515753934483355</v>
       </c>
       <c r="P7">
-        <v>0.3597907728933715</v>
+        <v>0.6515753934483355</v>
       </c>
       <c r="Q7">
-        <v>0.05188711388</v>
+        <v>0.398141034102</v>
       </c>
       <c r="R7">
-        <v>0.46698402492</v>
+        <v>3.583269306918</v>
       </c>
       <c r="S7">
-        <v>0.006210887639407172</v>
+        <v>0.04103664973033033</v>
       </c>
       <c r="T7">
-        <v>0.006210887639407172</v>
+        <v>0.04103664973033033</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.271593</v>
+      </c>
+      <c r="H8">
+        <v>0.814779</v>
+      </c>
+      <c r="I8">
+        <v>0.06298066216581918</v>
+      </c>
+      <c r="J8">
+        <v>0.06298066216581918</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.4647176666666666</v>
+      </c>
+      <c r="N8">
+        <v>1.394153</v>
+      </c>
+      <c r="O8">
+        <v>0.2065548943100223</v>
+      </c>
+      <c r="P8">
+        <v>0.2065548943100223</v>
+      </c>
+      <c r="Q8">
+        <v>0.126214065243</v>
+      </c>
+      <c r="R8">
+        <v>1.135926587187</v>
+      </c>
+      <c r="S8">
+        <v>0.013008964017236</v>
+      </c>
+      <c r="T8">
+        <v>0.013008964017236</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.271593</v>
+      </c>
+      <c r="H9">
+        <v>0.814779</v>
+      </c>
+      <c r="I9">
+        <v>0.06298066216581918</v>
+      </c>
+      <c r="J9">
+        <v>0.06298066216581918</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.1083836666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.325151</v>
+      </c>
+      <c r="O9">
+        <v>0.04817371582588</v>
+      </c>
+      <c r="P9">
+        <v>0.04817371582587999</v>
+      </c>
+      <c r="Q9">
+        <v>0.029436245181</v>
+      </c>
+      <c r="R9">
+        <v>0.264926206629</v>
+      </c>
+      <c r="S9">
+        <v>0.003034012521701925</v>
+      </c>
+      <c r="T9">
+        <v>0.003034012521701925</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.3383276666666666</v>
+      </c>
+      <c r="H10">
+        <v>1.014983</v>
+      </c>
+      <c r="I10">
+        <v>0.07845600024920825</v>
+      </c>
+      <c r="J10">
+        <v>0.07845600024920826</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.210802</v>
+      </c>
+      <c r="N10">
+        <v>0.632406</v>
+      </c>
+      <c r="O10">
+        <v>0.09369599641576212</v>
+      </c>
+      <c r="P10">
+        <v>0.09369599641576211</v>
+      </c>
+      <c r="Q10">
+        <v>0.07132014878866666</v>
+      </c>
+      <c r="R10">
+        <v>0.641881339098</v>
+      </c>
+      <c r="S10">
+        <v>0.007351013118144848</v>
+      </c>
+      <c r="T10">
+        <v>0.007351013118144849</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.3383276666666666</v>
+      </c>
+      <c r="H11">
+        <v>1.014983</v>
+      </c>
+      <c r="I11">
+        <v>0.07845600024920825</v>
+      </c>
+      <c r="J11">
+        <v>0.07845600024920826</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.465947333333333</v>
+      </c>
+      <c r="N11">
+        <v>4.397842</v>
+      </c>
+      <c r="O11">
+        <v>0.6515753934483355</v>
+      </c>
+      <c r="P11">
+        <v>0.6515753934483355</v>
+      </c>
+      <c r="Q11">
+        <v>0.4959705407428888</v>
+      </c>
+      <c r="R11">
+        <v>4.463734866686</v>
+      </c>
+      <c r="S11">
+        <v>0.05111999923076057</v>
+      </c>
+      <c r="T11">
+        <v>0.05111999923076058</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.3383276666666666</v>
+      </c>
+      <c r="H12">
+        <v>1.014983</v>
+      </c>
+      <c r="I12">
+        <v>0.07845600024920825</v>
+      </c>
+      <c r="J12">
+        <v>0.07845600024920826</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.4647176666666666</v>
+      </c>
+      <c r="N12">
+        <v>1.394153</v>
+      </c>
+      <c r="O12">
+        <v>0.2065548943100223</v>
+      </c>
+      <c r="P12">
+        <v>0.2065548943100223</v>
+      </c>
+      <c r="Q12">
+        <v>0.1572268438221111</v>
+      </c>
+      <c r="R12">
+        <v>1.415041594399</v>
+      </c>
+      <c r="S12">
+        <v>0.01620547083946229</v>
+      </c>
+      <c r="T12">
+        <v>0.0162054708394623</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.3383276666666666</v>
+      </c>
+      <c r="H13">
+        <v>1.014983</v>
+      </c>
+      <c r="I13">
+        <v>0.07845600024920825</v>
+      </c>
+      <c r="J13">
+        <v>0.07845600024920826</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.1083836666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.325151</v>
+      </c>
+      <c r="O13">
+        <v>0.04817371582588</v>
+      </c>
+      <c r="P13">
+        <v>0.04817371582587999</v>
+      </c>
+      <c r="Q13">
+        <v>0.0366691930481111</v>
+      </c>
+      <c r="R13">
+        <v>0.330022737433</v>
+      </c>
+      <c r="S13">
+        <v>0.003779517060840528</v>
+      </c>
+      <c r="T13">
+        <v>0.003779517060840528</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.6598303333333333</v>
+      </c>
+      <c r="H14">
+        <v>1.979491</v>
+      </c>
+      <c r="I14">
+        <v>0.1530103916906052</v>
+      </c>
+      <c r="J14">
+        <v>0.1530103916906052</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.210802</v>
+      </c>
+      <c r="N14">
+        <v>0.632406</v>
+      </c>
+      <c r="O14">
+        <v>0.09369599641576212</v>
+      </c>
+      <c r="P14">
+        <v>0.09369599641576211</v>
+      </c>
+      <c r="Q14">
+        <v>0.1390935539273333</v>
+      </c>
+      <c r="R14">
+        <v>1.251841985346</v>
+      </c>
+      <c r="S14">
+        <v>0.0143364611114173</v>
+      </c>
+      <c r="T14">
+        <v>0.0143364611114173</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.6598303333333333</v>
+      </c>
+      <c r="H15">
+        <v>1.979491</v>
+      </c>
+      <c r="I15">
+        <v>0.1530103916906052</v>
+      </c>
+      <c r="J15">
+        <v>0.1530103916906052</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.465947333333333</v>
+      </c>
+      <c r="N15">
+        <v>4.397842</v>
+      </c>
+      <c r="O15">
+        <v>0.6515753934483355</v>
+      </c>
+      <c r="P15">
+        <v>0.6515753934483355</v>
+      </c>
+      <c r="Q15">
+        <v>0.9672765176024444</v>
+      </c>
+      <c r="R15">
+        <v>8.705488658421999</v>
+      </c>
+      <c r="S15">
+        <v>0.09969780616748998</v>
+      </c>
+      <c r="T15">
+        <v>0.09969780616748998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.6598303333333333</v>
+      </c>
+      <c r="H16">
+        <v>1.979491</v>
+      </c>
+      <c r="I16">
+        <v>0.1530103916906052</v>
+      </c>
+      <c r="J16">
+        <v>0.1530103916906052</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.4647176666666666</v>
+      </c>
+      <c r="N16">
+        <v>1.394153</v>
+      </c>
+      <c r="O16">
+        <v>0.2065548943100223</v>
+      </c>
+      <c r="P16">
+        <v>0.2065548943100223</v>
+      </c>
+      <c r="Q16">
+        <v>0.3066348129025555</v>
+      </c>
+      <c r="R16">
+        <v>2.759713316123</v>
+      </c>
+      <c r="S16">
+        <v>0.03160504528398807</v>
+      </c>
+      <c r="T16">
+        <v>0.03160504528398807</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.6598303333333333</v>
+      </c>
+      <c r="H17">
+        <v>1.979491</v>
+      </c>
+      <c r="I17">
+        <v>0.1530103916906052</v>
+      </c>
+      <c r="J17">
+        <v>0.1530103916906052</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.1083836666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.325151</v>
+      </c>
+      <c r="O17">
+        <v>0.04817371582588</v>
+      </c>
+      <c r="P17">
+        <v>0.04817371582587999</v>
+      </c>
+      <c r="Q17">
+        <v>0.07151483090455554</v>
+      </c>
+      <c r="R17">
+        <v>0.6436334781409999</v>
+      </c>
+      <c r="S17">
+        <v>0.007371079127709802</v>
+      </c>
+      <c r="T17">
+        <v>0.007371079127709801</v>
       </c>
     </row>
   </sheetData>
